--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200331.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\3.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DE259B-3F2F-40D0-9B95-2A38F7A05D4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB654A3-DB7C-417B-9D91-481EF9CDFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9336" uniqueCount="3298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9339" uniqueCount="3301">
   <si>
     <t>序号</t>
   </si>
@@ -10284,6 +10284,18 @@
   </si>
   <si>
     <t>http://wsjkw.hebei.gov.cn/content/content_14/403321.jhtml</t>
+  </si>
+  <si>
+    <t>新增无症状感染人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增无症状感染治愈人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增无症状感染死亡人数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10725,10 +10737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN20"/>
+  <dimension ref="A1:AQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
@@ -10745,37 +10757,40 @@
     <col min="10" max="10" width="7.6328125" style="12" customWidth="1"/>
     <col min="11" max="11" width="7.26953125" style="12" customWidth="1"/>
     <col min="12" max="12" width="7.1796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="6.7265625" style="12" customWidth="1"/>
-    <col min="15" max="15" width="6.36328125" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.26953125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="7.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="7" style="12" customWidth="1"/>
-    <col min="20" max="20" width="17.36328125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="21.1796875" style="12" customWidth="1"/>
-    <col min="22" max="22" width="23.36328125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="15.26953125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
-    <col min="25" max="25" width="13.453125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="28.90625" style="12" customWidth="1"/>
-    <col min="27" max="27" width="21.90625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="20.90625" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
-    <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
-    <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="13" max="13" width="12.81640625" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.26953125" style="12" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="12" customWidth="1"/>
+    <col min="17" max="17" width="6.7265625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.36328125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="6.26953125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="7.1796875" style="12" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="12" customWidth="1"/>
+    <col min="22" max="22" width="7" style="12" customWidth="1"/>
+    <col min="23" max="23" width="17.36328125" style="13" customWidth="1"/>
+    <col min="24" max="24" width="21.1796875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="23.36328125" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.26953125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="16.08984375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="13.453125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="28.90625" style="12" customWidth="1"/>
+    <col min="30" max="30" width="21.90625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="20.90625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="25.453125" style="12" customWidth="1"/>
+    <col min="33" max="33" width="31.90625" style="12" customWidth="1"/>
+    <col min="34" max="34" width="21.90625" style="12" customWidth="1"/>
+    <col min="35" max="35" width="24.453125" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31" style="12" customWidth="1"/>
+    <col min="37" max="37" width="8.90625" style="12" customWidth="1"/>
+    <col min="38" max="39" width="31.90625" style="12" customWidth="1"/>
+    <col min="40" max="40" width="21.90625" style="12" customWidth="1"/>
+    <col min="41" max="41" width="24.453125" style="12" customWidth="1"/>
+    <col min="42" max="42" width="31" style="12" customWidth="1"/>
+    <col min="43" max="43" width="5.08984375" style="12" customWidth="1"/>
+    <col min="44" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10813,91 +10828,100 @@
         <v>11</v>
       </c>
       <c r="M1" s="14" t="s">
+        <v>3298</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>3299</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>3300</v>
+      </c>
+      <c r="P1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="16.2">
+    <row r="2" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10924,43 +10948,43 @@
       <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="16">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16">
         <v>48</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16">
         <v>45</v>
       </c>
-      <c r="P2" s="16">
+      <c r="S2" s="16">
         <v>3</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T2" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T2" s="16"/>
       <c r="U2" s="16"/>
       <c r="V2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="19">
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="19">
         <v>43922.423611111109</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AD2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AE2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC2" s="16"/>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
       <c r="AF2" s="16"/>
       <c r="AG2" s="16"/>
       <c r="AH2" s="16"/>
@@ -10970,8 +10994,11 @@
       <c r="AL2" s="16"/>
       <c r="AM2" s="16"/>
       <c r="AN2" s="16"/>
-    </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="16"/>
+      <c r="AQ2" s="16"/>
+    </row>
+    <row r="3" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -10998,43 +11025,43 @@
       <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
-      <c r="M3" s="16">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16">
         <v>58</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16">
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16">
         <v>55</v>
       </c>
-      <c r="P3" s="16">
+      <c r="S3" s="16">
         <v>1</v>
       </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T3" s="16"/>
       <c r="U3" s="16"/>
       <c r="V3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W3" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="19">
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="19">
         <v>43922.423611111109</v>
       </c>
-      <c r="AA3" s="16" t="s">
+      <c r="AD3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" s="16" t="s">
+      <c r="AE3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
       <c r="AF3" s="16"/>
       <c r="AG3" s="16"/>
       <c r="AH3" s="16"/>
@@ -11044,8 +11071,11 @@
       <c r="AL3" s="16"/>
       <c r="AM3" s="16"/>
       <c r="AN3" s="16"/>
-    </row>
-    <row r="4" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO3" s="16"/>
+      <c r="AP3" s="16"/>
+      <c r="AQ3" s="16"/>
+    </row>
+    <row r="4" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -11072,41 +11102,41 @@
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="16">
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16">
         <v>41</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16">
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16">
         <v>41</v>
       </c>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T4" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W4" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="19">
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA4" s="16" t="s">
+      <c r="AD4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB4" s="16" t="s">
+      <c r="AE4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
-      <c r="AE4" s="16"/>
       <c r="AF4" s="16"/>
       <c r="AG4" s="16"/>
       <c r="AH4" s="16"/>
@@ -11116,8 +11146,11 @@
       <c r="AL4" s="16"/>
       <c r="AM4" s="16"/>
       <c r="AN4" s="16"/>
-    </row>
-    <row r="5" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO4" s="16"/>
+      <c r="AP4" s="16"/>
+      <c r="AQ4" s="16"/>
+    </row>
+    <row r="5" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11144,41 +11177,41 @@
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
-      <c r="M5" s="16">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <v>32</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16">
         <v>32</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T5" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
       <c r="U5" s="16"/>
       <c r="V5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16"/>
-      <c r="Y5" s="16"/>
-      <c r="Z5" s="19">
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AD5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB5" s="16" t="s">
+      <c r="AE5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC5" s="16"/>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
       <c r="AF5" s="16"/>
       <c r="AG5" s="16"/>
       <c r="AH5" s="16"/>
@@ -11188,8 +11221,11 @@
       <c r="AL5" s="16"/>
       <c r="AM5" s="16"/>
       <c r="AN5" s="16"/>
-    </row>
-    <row r="6" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO5" s="16"/>
+      <c r="AP5" s="16"/>
+      <c r="AQ5" s="16"/>
+    </row>
+    <row r="6" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -11216,41 +11252,41 @@
       <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
-      <c r="M6" s="16">
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <v>32</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16">
         <v>32</v>
       </c>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T6" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
       <c r="U6" s="16"/>
       <c r="V6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="19">
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA6" s="16" t="s">
+      <c r="AD6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB6" s="16" t="s">
+      <c r="AE6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC6" s="16"/>
-      <c r="AD6" s="16"/>
-      <c r="AE6" s="16"/>
       <c r="AF6" s="16"/>
       <c r="AG6" s="16"/>
       <c r="AH6" s="16"/>
@@ -11260,8 +11296,11 @@
       <c r="AL6" s="16"/>
       <c r="AM6" s="16"/>
       <c r="AN6" s="16"/>
-    </row>
-    <row r="7" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO6" s="16"/>
+      <c r="AP6" s="16"/>
+      <c r="AQ6" s="16"/>
+    </row>
+    <row r="7" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -11288,41 +11327,41 @@
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
-      <c r="M7" s="16">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>30</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16">
         <v>30</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T7" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
       <c r="U7" s="16"/>
       <c r="V7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W7" s="16"/>
-      <c r="X7" s="16"/>
-      <c r="Y7" s="16"/>
-      <c r="Z7" s="19">
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA7" s="16" t="s">
+      <c r="AD7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB7" s="16" t="s">
+      <c r="AE7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
       <c r="AF7" s="16"/>
       <c r="AG7" s="16"/>
       <c r="AH7" s="16"/>
@@ -11332,8 +11371,11 @@
       <c r="AL7" s="16"/>
       <c r="AM7" s="16"/>
       <c r="AN7" s="16"/>
-    </row>
-    <row r="8" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO7" s="16"/>
+      <c r="AP7" s="16"/>
+      <c r="AQ7" s="16"/>
+    </row>
+    <row r="8" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11360,41 +11402,41 @@
       <c r="J8" s="16"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
-      <c r="M8" s="16">
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16">
         <v>29</v>
       </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16">
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16">
         <v>29</v>
       </c>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T8" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
       <c r="U8" s="16"/>
       <c r="V8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="16"/>
-      <c r="Z8" s="19">
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA8" s="16" t="s">
+      <c r="AD8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB8" s="16" t="s">
+      <c r="AE8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC8" s="16"/>
-      <c r="AD8" s="16"/>
-      <c r="AE8" s="16"/>
       <c r="AF8" s="16"/>
       <c r="AG8" s="16"/>
       <c r="AH8" s="16"/>
@@ -11404,8 +11446,11 @@
       <c r="AL8" s="16"/>
       <c r="AM8" s="16"/>
       <c r="AN8" s="16"/>
-    </row>
-    <row r="9" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO8" s="16"/>
+      <c r="AP8" s="16"/>
+      <c r="AQ8" s="16"/>
+    </row>
+    <row r="9" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -11432,43 +11477,43 @@
       <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
-      <c r="M9" s="16">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>23</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16">
         <v>22</v>
       </c>
-      <c r="P9" s="16">
+      <c r="S9" s="16">
         <v>1</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T9" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T9" s="16"/>
       <c r="U9" s="16"/>
       <c r="V9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16"/>
-      <c r="Y9" s="16"/>
-      <c r="Z9" s="19">
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA9" s="16" t="s">
+      <c r="AD9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB9" s="16" t="s">
+      <c r="AE9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC9" s="16"/>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
       <c r="AF9" s="16"/>
       <c r="AG9" s="16"/>
       <c r="AH9" s="16"/>
@@ -11478,8 +11523,11 @@
       <c r="AL9" s="16"/>
       <c r="AM9" s="16"/>
       <c r="AN9" s="16"/>
-    </row>
-    <row r="10" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO9" s="16"/>
+      <c r="AP9" s="16"/>
+      <c r="AQ9" s="16"/>
+    </row>
+    <row r="10" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -11506,43 +11554,43 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
-      <c r="M10" s="16">
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16">
         <v>10</v>
       </c>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16">
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16">
         <v>9</v>
       </c>
-      <c r="P10" s="16">
+      <c r="S10" s="16">
         <v>1</v>
       </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T10" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T10" s="16"/>
       <c r="U10" s="16"/>
       <c r="V10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="19">
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA10" s="16" t="s">
+      <c r="AD10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB10" s="16" t="s">
+      <c r="AE10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
       <c r="AG10" s="16"/>
       <c r="AH10" s="16"/>
@@ -11552,8 +11600,11 @@
       <c r="AL10" s="16"/>
       <c r="AM10" s="16"/>
       <c r="AN10" s="16"/>
-    </row>
-    <row r="11" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO10" s="16"/>
+      <c r="AP10" s="16"/>
+      <c r="AQ10" s="16"/>
+    </row>
+    <row r="11" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -11580,41 +11631,41 @@
       <c r="J11" s="16"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
-      <c r="M11" s="16">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>8</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16">
         <v>8</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T11" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
       <c r="U11" s="16"/>
       <c r="V11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16"/>
-      <c r="Y11" s="16"/>
-      <c r="Z11" s="19">
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA11" s="16" t="s">
+      <c r="AD11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB11" s="16" t="s">
+      <c r="AE11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
       <c r="AF11" s="16"/>
       <c r="AG11" s="16"/>
       <c r="AH11" s="16"/>
@@ -11624,8 +11675,11 @@
       <c r="AL11" s="16"/>
       <c r="AM11" s="16"/>
       <c r="AN11" s="16"/>
-    </row>
-    <row r="12" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO11" s="16"/>
+      <c r="AP11" s="16"/>
+      <c r="AQ11" s="16"/>
+    </row>
+    <row r="12" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -11652,41 +11706,41 @@
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
-      <c r="M12" s="16">
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16">
         <v>7</v>
       </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16">
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16">
         <v>7</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T12" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
       <c r="U12" s="16"/>
       <c r="V12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="19">
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA12" s="16" t="s">
+      <c r="AD12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB12" s="16" t="s">
+      <c r="AE12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
       <c r="AF12" s="16"/>
       <c r="AG12" s="16"/>
       <c r="AH12" s="16"/>
@@ -11696,8 +11750,11 @@
       <c r="AL12" s="16"/>
       <c r="AM12" s="16"/>
       <c r="AN12" s="16"/>
-    </row>
-    <row r="13" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO12" s="16"/>
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+    </row>
+    <row r="13" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -11730,31 +11787,31 @@
       <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
-      <c r="S13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
       <c r="U13" s="16"/>
       <c r="V13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="19">
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA13" s="16" t="s">
+      <c r="AD13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB13" s="16" t="s">
+      <c r="AE13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
       <c r="AG13" s="16"/>
       <c r="AH13" s="16"/>
@@ -11764,8 +11821,11 @@
       <c r="AL13" s="16"/>
       <c r="AM13" s="16"/>
       <c r="AN13" s="16"/>
-    </row>
-    <row r="14" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO13" s="16"/>
+      <c r="AP13" s="16"/>
+      <c r="AQ13" s="16"/>
+    </row>
+    <row r="14" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -11796,39 +11856,39 @@
       <c r="J14" s="16"/>
       <c r="K14" s="16"/>
       <c r="L14" s="16"/>
-      <c r="M14" s="16">
-        <v>5</v>
-      </c>
+      <c r="M14" s="16"/>
       <c r="N14" s="16"/>
       <c r="O14" s="16"/>
-      <c r="P14" s="16"/>
+      <c r="P14" s="16">
+        <v>5</v>
+      </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
-      <c r="S14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
       <c r="U14" s="16"/>
       <c r="V14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-      <c r="Z14" s="19">
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16"/>
+      <c r="AC14" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA14" s="16" t="s">
+      <c r="AD14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB14" s="16" t="s">
+      <c r="AE14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
       <c r="AF14" s="16"/>
       <c r="AG14" s="16"/>
       <c r="AH14" s="16"/>
@@ -11838,8 +11898,11 @@
       <c r="AL14" s="16"/>
       <c r="AM14" s="16"/>
       <c r="AN14" s="16"/>
-    </row>
-    <row r="15" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO14" s="16"/>
+      <c r="AP14" s="16"/>
+      <c r="AQ14" s="16"/>
+    </row>
+    <row r="15" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -11868,39 +11931,39 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
       <c r="L15" s="16"/>
-      <c r="M15" s="16">
-        <v>5</v>
-      </c>
+      <c r="M15" s="16"/>
       <c r="N15" s="16"/>
       <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="16">
+        <v>5</v>
+      </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
-      <c r="S15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T15" s="17">
-        <v>43922</v>
-      </c>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
       <c r="U15" s="16"/>
       <c r="V15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16"/>
-      <c r="Y15" s="16"/>
-      <c r="Z15" s="19">
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16"/>
+      <c r="AC15" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA15" s="16" t="s">
+      <c r="AD15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB15" s="16" t="s">
+      <c r="AE15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
       <c r="AF15" s="16"/>
       <c r="AG15" s="16"/>
       <c r="AH15" s="16"/>
@@ -11910,8 +11973,11 @@
       <c r="AL15" s="16"/>
       <c r="AM15" s="16"/>
       <c r="AN15" s="16"/>
-    </row>
-    <row r="16" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO15" s="16"/>
+      <c r="AP15" s="16"/>
+      <c r="AQ15" s="16"/>
+    </row>
+    <row r="16" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -11938,43 +12004,43 @@
       <c r="J16" s="16"/>
       <c r="K16" s="16"/>
       <c r="L16" s="16"/>
-      <c r="M16" s="16">
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16">
         <v>326</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16">
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16">
         <v>310</v>
       </c>
-      <c r="P16" s="16">
+      <c r="S16" s="16">
         <v>6</v>
       </c>
-      <c r="Q16" s="16"/>
-      <c r="R16" s="16"/>
-      <c r="S16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T16" s="16"/>
       <c r="U16" s="16"/>
       <c r="V16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16" s="17">
+        <v>43922</v>
+      </c>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="19">
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16"/>
+      <c r="AC16" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AA16" s="16" t="s">
+      <c r="AD16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AB16" s="16" t="s">
+      <c r="AE16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
       <c r="AF16" s="16"/>
       <c r="AG16" s="16"/>
       <c r="AH16" s="16"/>
@@ -11984,8 +12050,11 @@
       <c r="AL16" s="16"/>
       <c r="AM16" s="16"/>
       <c r="AN16" s="16"/>
-    </row>
-    <row r="17" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO16" s="16"/>
+      <c r="AP16" s="16"/>
+      <c r="AQ16" s="16"/>
+    </row>
+    <row r="17" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="16"/>
@@ -12004,10 +12073,10 @@
       <c r="P17" s="16"/>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
-      <c r="S17" s="20"/>
+      <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
+      <c r="V17" s="20"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
@@ -12026,8 +12095,11 @@
       <c r="AL17" s="16"/>
       <c r="AM17" s="16"/>
       <c r="AN17" s="16"/>
-    </row>
-    <row r="18" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO17" s="16"/>
+      <c r="AP17" s="16"/>
+      <c r="AQ17" s="16"/>
+    </row>
+    <row r="18" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="16"/>
@@ -12068,8 +12140,11 @@
       <c r="AL18" s="16"/>
       <c r="AM18" s="16"/>
       <c r="AN18" s="16"/>
-    </row>
-    <row r="19" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO18" s="16"/>
+      <c r="AP18" s="16"/>
+      <c r="AQ18" s="16"/>
+    </row>
+    <row r="19" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
@@ -12110,8 +12185,11 @@
       <c r="AL19" s="16"/>
       <c r="AM19" s="16"/>
       <c r="AN19" s="16"/>
-    </row>
-    <row r="20" spans="1:40" s="11" customFormat="1" ht="16.2">
+      <c r="AO19" s="16"/>
+      <c r="AP19" s="16"/>
+      <c r="AQ19" s="16"/>
+    </row>
+    <row r="20" spans="1:43" s="11" customFormat="1" ht="16.2">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12152,6 +12230,9 @@
       <c r="AL20" s="14"/>
       <c r="AM20" s="14"/>
       <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12159,16 +12240,16 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA1048576 AE2:AE1048576 AK2:AK1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1048576 AH2:AH1048576 AN2:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:U1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM1048576 AG2:AG1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP1048576 AJ2:AJ1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13 H15:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">

--- a/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200331.xlsx
+++ b/data/unchecked/manual_collect/china/hebei/hebeiCaseStatistics_20200331.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\疫情统计\3.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xenosaga\Desktop\util\china\hebei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB654A3-DB7C-417B-9D91-481EF9CDFE0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E585F562-4A96-4AFC-9025-BB3886AAF7F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7890" yWindow="1920" windowWidth="16920" windowHeight="11680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -388,7 +388,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9339" uniqueCount="3301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9342" uniqueCount="3304">
   <si>
     <t>序号</t>
   </si>
@@ -10296,6 +10296,15 @@
   <si>
     <t>新增无症状感染死亡人数</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>累计无症状感染人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染治愈人数</t>
+  </si>
+  <si>
+    <t>累计无症状感染死亡人数</t>
   </si>
 </sst>
 </file>
@@ -10306,7 +10315,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ hh:mm"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ h:mm:ss;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -10375,6 +10384,26 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10408,7 +10437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10462,6 +10491,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -10737,60 +10773,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ20"/>
+  <dimension ref="A1:AT20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="20.36328125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
-    <col min="6" max="6" width="9.08984375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="6.6328125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="4.7265625" style="12" customWidth="1"/>
-    <col min="10" max="10" width="7.6328125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="7.26953125" style="12" customWidth="1"/>
-    <col min="12" max="12" width="7.1796875" style="12" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" style="12" customWidth="1"/>
-    <col min="14" max="14" width="14.26953125" style="12" customWidth="1"/>
-    <col min="15" max="15" width="11.54296875" style="12" customWidth="1"/>
-    <col min="16" max="16" width="6.1796875" style="12" customWidth="1"/>
-    <col min="17" max="17" width="6.7265625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="6.36328125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="6.26953125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="7.1796875" style="12" customWidth="1"/>
-    <col min="21" max="21" width="10.90625" style="12" customWidth="1"/>
-    <col min="22" max="22" width="7" style="12" customWidth="1"/>
-    <col min="23" max="23" width="17.36328125" style="13" customWidth="1"/>
-    <col min="24" max="24" width="21.1796875" style="12" customWidth="1"/>
-    <col min="25" max="25" width="23.36328125" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.26953125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="16.08984375" style="12" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" style="12" customWidth="1"/>
-    <col min="29" max="29" width="28.90625" style="12" customWidth="1"/>
-    <col min="30" max="30" width="21.90625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="20.90625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="25.453125" style="12" customWidth="1"/>
-    <col min="33" max="33" width="31.90625" style="12" customWidth="1"/>
-    <col min="34" max="34" width="21.90625" style="12" customWidth="1"/>
-    <col min="35" max="35" width="24.453125" style="12" customWidth="1"/>
-    <col min="36" max="36" width="31" style="12" customWidth="1"/>
-    <col min="37" max="37" width="8.90625" style="12" customWidth="1"/>
-    <col min="38" max="39" width="31.90625" style="12" customWidth="1"/>
-    <col min="40" max="40" width="21.90625" style="12" customWidth="1"/>
-    <col min="41" max="41" width="24.453125" style="12" customWidth="1"/>
-    <col min="42" max="42" width="31" style="12" customWidth="1"/>
-    <col min="43" max="43" width="5.08984375" style="12" customWidth="1"/>
-    <col min="44" max="16384" width="10.90625" style="12"/>
+    <col min="1" max="1" width="11.921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.4609375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.61328125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="20.3828125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.07421875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="9.07421875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="6.61328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="4.69140625" style="12" customWidth="1"/>
+    <col min="10" max="10" width="7.61328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="7.23046875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="7.15234375" style="12" customWidth="1"/>
+    <col min="13" max="13" width="12.84375" style="12" customWidth="1"/>
+    <col min="14" max="14" width="14.23046875" style="12" customWidth="1"/>
+    <col min="15" max="15" width="11.53515625" style="12" customWidth="1"/>
+    <col min="16" max="16" width="6.15234375" style="12" customWidth="1"/>
+    <col min="17" max="17" width="6.69140625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="6.3828125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="6.23046875" style="12" customWidth="1"/>
+    <col min="20" max="22" width="12.4609375" style="23" customWidth="1"/>
+    <col min="23" max="23" width="7.15234375" style="12" customWidth="1"/>
+    <col min="24" max="24" width="10.921875" style="12" customWidth="1"/>
+    <col min="25" max="25" width="7" style="12" customWidth="1"/>
+    <col min="26" max="26" width="17.3828125" style="13" customWidth="1"/>
+    <col min="27" max="27" width="21.15234375" style="12" customWidth="1"/>
+    <col min="28" max="28" width="23.3828125" style="12" customWidth="1"/>
+    <col min="29" max="29" width="15.23046875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="16.07421875" style="12" customWidth="1"/>
+    <col min="31" max="31" width="13.4609375" style="12" customWidth="1"/>
+    <col min="32" max="32" width="28.921875" style="12" customWidth="1"/>
+    <col min="33" max="33" width="21.921875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="20.921875" style="12" customWidth="1"/>
+    <col min="35" max="35" width="25.4609375" style="12" customWidth="1"/>
+    <col min="36" max="36" width="31.921875" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.921875" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.4609375" style="12" customWidth="1"/>
+    <col min="39" max="39" width="31" style="12" customWidth="1"/>
+    <col min="40" max="40" width="8.921875" style="12" customWidth="1"/>
+    <col min="41" max="42" width="31.921875" style="12" customWidth="1"/>
+    <col min="43" max="43" width="21.921875" style="12" customWidth="1"/>
+    <col min="44" max="44" width="24.4609375" style="12" customWidth="1"/>
+    <col min="45" max="45" width="31" style="12" customWidth="1"/>
+    <col min="46" max="46" width="5.07421875" style="12" customWidth="1"/>
+    <col min="47" max="16384" width="10.921875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:46" s="11" customFormat="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10848,80 +10885,89 @@
       <c r="S1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="21" t="s">
+        <v>3301</v>
+      </c>
+      <c r="U1" s="22" t="s">
+        <v>3302</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>3303</v>
+      </c>
+      <c r="W1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AG1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AH1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AI1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AJ1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AK1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AL1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AM1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AN1" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AO1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AP1" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AQ1" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:43" s="11" customFormat="1" ht="16.2">
+    <row r="2" spans="1:46" s="11" customFormat="1">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -10961,33 +11007,33 @@
       <c r="S2" s="16">
         <v>3</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W2" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="16"/>
       <c r="X2" s="16"/>
       <c r="Y2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="19">
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="19">
         <v>43922.423611111109</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AG2" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AH2" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16"/>
       <c r="AI2" s="16"/>
       <c r="AJ2" s="16"/>
       <c r="AK2" s="16"/>
@@ -10997,8 +11043,11 @@
       <c r="AO2" s="16"/>
       <c r="AP2" s="16"/>
       <c r="AQ2" s="16"/>
-    </row>
-    <row r="3" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR2" s="16"/>
+      <c r="AS2" s="16"/>
+      <c r="AT2" s="16"/>
+    </row>
+    <row r="3" spans="1:46" s="11" customFormat="1">
       <c r="A3" s="16">
         <v>2</v>
       </c>
@@ -11038,33 +11087,33 @@
       <c r="S3" s="16">
         <v>1</v>
       </c>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="16"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="19">
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="19">
         <v>43922.423611111109</v>
       </c>
-      <c r="AD3" s="16" t="s">
+      <c r="AG3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE3" s="16" t="s">
+      <c r="AH3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
       <c r="AI3" s="16"/>
       <c r="AJ3" s="16"/>
       <c r="AK3" s="16"/>
@@ -11074,8 +11123,11 @@
       <c r="AO3" s="16"/>
       <c r="AP3" s="16"/>
       <c r="AQ3" s="16"/>
-    </row>
-    <row r="4" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR3" s="16"/>
+      <c r="AS3" s="16"/>
+      <c r="AT3" s="16"/>
+    </row>
+    <row r="4" spans="1:46" s="11" customFormat="1">
       <c r="A4" s="16">
         <v>3</v>
       </c>
@@ -11113,33 +11165,33 @@
         <v>41</v>
       </c>
       <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W4" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z4" s="16"/>
-      <c r="AA4" s="16"/>
-      <c r="AB4" s="16"/>
-      <c r="AC4" s="19">
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD4" s="16" t="s">
+      <c r="AG4" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE4" s="16" t="s">
+      <c r="AH4" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF4" s="16"/>
-      <c r="AG4" s="16"/>
-      <c r="AH4" s="16"/>
       <c r="AI4" s="16"/>
       <c r="AJ4" s="16"/>
       <c r="AK4" s="16"/>
@@ -11149,8 +11201,11 @@
       <c r="AO4" s="16"/>
       <c r="AP4" s="16"/>
       <c r="AQ4" s="16"/>
-    </row>
-    <row r="5" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR4" s="16"/>
+      <c r="AS4" s="16"/>
+      <c r="AT4" s="16"/>
+    </row>
+    <row r="5" spans="1:46" s="11" customFormat="1">
       <c r="A5" s="16">
         <v>4</v>
       </c>
@@ -11188,33 +11243,33 @@
         <v>32</v>
       </c>
       <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W5" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="16"/>
       <c r="X5" s="16"/>
       <c r="Y5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z5" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z5" s="16"/>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="16"/>
-      <c r="AC5" s="19">
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD5" s="16" t="s">
+      <c r="AG5" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AH5" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF5" s="16"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="16"/>
       <c r="AI5" s="16"/>
       <c r="AJ5" s="16"/>
       <c r="AK5" s="16"/>
@@ -11224,8 +11279,11 @@
       <c r="AO5" s="16"/>
       <c r="AP5" s="16"/>
       <c r="AQ5" s="16"/>
-    </row>
-    <row r="6" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR5" s="16"/>
+      <c r="AS5" s="16"/>
+      <c r="AT5" s="16"/>
+    </row>
+    <row r="6" spans="1:46" s="11" customFormat="1">
       <c r="A6" s="16">
         <v>5</v>
       </c>
@@ -11263,33 +11321,33 @@
         <v>32</v>
       </c>
       <c r="S6" s="16"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="16"/>
-      <c r="V6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W6" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="16"/>
       <c r="X6" s="16"/>
       <c r="Y6" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="16"/>
-      <c r="AC6" s="19">
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD6" s="16" t="s">
+      <c r="AG6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE6" s="16" t="s">
+      <c r="AH6" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF6" s="16"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="16"/>
       <c r="AI6" s="16"/>
       <c r="AJ6" s="16"/>
       <c r="AK6" s="16"/>
@@ -11299,8 +11357,11 @@
       <c r="AO6" s="16"/>
       <c r="AP6" s="16"/>
       <c r="AQ6" s="16"/>
-    </row>
-    <row r="7" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR6" s="16"/>
+      <c r="AS6" s="16"/>
+      <c r="AT6" s="16"/>
+    </row>
+    <row r="7" spans="1:46" s="11" customFormat="1">
       <c r="A7" s="16">
         <v>6</v>
       </c>
@@ -11338,33 +11399,33 @@
         <v>30</v>
       </c>
       <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="16"/>
       <c r="X7" s="16"/>
       <c r="Y7" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z7" s="16"/>
-      <c r="AA7" s="16"/>
-      <c r="AB7" s="16"/>
-      <c r="AC7" s="19">
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD7" s="16" t="s">
+      <c r="AG7" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AH7" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF7" s="16"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="16"/>
       <c r="AI7" s="16"/>
       <c r="AJ7" s="16"/>
       <c r="AK7" s="16"/>
@@ -11374,8 +11435,11 @@
       <c r="AO7" s="16"/>
       <c r="AP7" s="16"/>
       <c r="AQ7" s="16"/>
-    </row>
-    <row r="8" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR7" s="16"/>
+      <c r="AS7" s="16"/>
+      <c r="AT7" s="16"/>
+    </row>
+    <row r="8" spans="1:46" s="11" customFormat="1">
       <c r="A8" s="16">
         <v>7</v>
       </c>
@@ -11413,33 +11477,33 @@
         <v>29</v>
       </c>
       <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W8" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="16"/>
       <c r="X8" s="16"/>
       <c r="Y8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z8" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z8" s="16"/>
-      <c r="AA8" s="16"/>
-      <c r="AB8" s="16"/>
-      <c r="AC8" s="19">
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD8" s="16" t="s">
+      <c r="AG8" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="16" t="s">
+      <c r="AH8" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF8" s="16"/>
-      <c r="AG8" s="16"/>
-      <c r="AH8" s="16"/>
       <c r="AI8" s="16"/>
       <c r="AJ8" s="16"/>
       <c r="AK8" s="16"/>
@@ -11449,8 +11513,11 @@
       <c r="AO8" s="16"/>
       <c r="AP8" s="16"/>
       <c r="AQ8" s="16"/>
-    </row>
-    <row r="9" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR8" s="16"/>
+      <c r="AS8" s="16"/>
+      <c r="AT8" s="16"/>
+    </row>
+    <row r="9" spans="1:46" s="11" customFormat="1">
       <c r="A9" s="16">
         <v>8</v>
       </c>
@@ -11490,33 +11557,33 @@
       <c r="S9" s="16">
         <v>1</v>
       </c>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W9" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="16"/>
       <c r="X9" s="16"/>
       <c r="Y9" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z9" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z9" s="16"/>
-      <c r="AA9" s="16"/>
-      <c r="AB9" s="16"/>
-      <c r="AC9" s="19">
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD9" s="16" t="s">
+      <c r="AG9" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="16" t="s">
+      <c r="AH9" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF9" s="16"/>
-      <c r="AG9" s="16"/>
-      <c r="AH9" s="16"/>
       <c r="AI9" s="16"/>
       <c r="AJ9" s="16"/>
       <c r="AK9" s="16"/>
@@ -11526,8 +11593,11 @@
       <c r="AO9" s="16"/>
       <c r="AP9" s="16"/>
       <c r="AQ9" s="16"/>
-    </row>
-    <row r="10" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR9" s="16"/>
+      <c r="AS9" s="16"/>
+      <c r="AT9" s="16"/>
+    </row>
+    <row r="10" spans="1:46" s="11" customFormat="1">
       <c r="A10" s="16">
         <v>9</v>
       </c>
@@ -11567,33 +11637,33 @@
       <c r="S10" s="16">
         <v>1</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W10" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="16"/>
       <c r="X10" s="16"/>
       <c r="Y10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z10" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="19">
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD10" s="16" t="s">
+      <c r="AG10" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE10" s="16" t="s">
+      <c r="AH10" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
       <c r="AI10" s="16"/>
       <c r="AJ10" s="16"/>
       <c r="AK10" s="16"/>
@@ -11603,8 +11673,11 @@
       <c r="AO10" s="16"/>
       <c r="AP10" s="16"/>
       <c r="AQ10" s="16"/>
-    </row>
-    <row r="11" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR10" s="16"/>
+      <c r="AS10" s="16"/>
+      <c r="AT10" s="16"/>
+    </row>
+    <row r="11" spans="1:46" s="11" customFormat="1">
       <c r="A11" s="16">
         <v>10</v>
       </c>
@@ -11642,33 +11715,33 @@
         <v>8</v>
       </c>
       <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W11" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="16"/>
       <c r="X11" s="16"/>
       <c r="Y11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z11" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z11" s="16"/>
-      <c r="AA11" s="16"/>
-      <c r="AB11" s="16"/>
-      <c r="AC11" s="19">
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD11" s="16" t="s">
+      <c r="AG11" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE11" s="16" t="s">
+      <c r="AH11" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
       <c r="AI11" s="16"/>
       <c r="AJ11" s="16"/>
       <c r="AK11" s="16"/>
@@ -11678,8 +11751,11 @@
       <c r="AO11" s="16"/>
       <c r="AP11" s="16"/>
       <c r="AQ11" s="16"/>
-    </row>
-    <row r="12" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR11" s="16"/>
+      <c r="AS11" s="16"/>
+      <c r="AT11" s="16"/>
+    </row>
+    <row r="12" spans="1:46" s="11" customFormat="1">
       <c r="A12" s="16">
         <v>11</v>
       </c>
@@ -11717,33 +11793,33 @@
         <v>7</v>
       </c>
       <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W12" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="16"/>
       <c r="X12" s="16"/>
       <c r="Y12" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z12" s="16"/>
-      <c r="AA12" s="16"/>
-      <c r="AB12" s="16"/>
-      <c r="AC12" s="19">
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD12" s="16" t="s">
+      <c r="AG12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE12" s="16" t="s">
+      <c r="AH12" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
       <c r="AI12" s="16"/>
       <c r="AJ12" s="16"/>
       <c r="AK12" s="16"/>
@@ -11753,8 +11829,11 @@
       <c r="AO12" s="16"/>
       <c r="AP12" s="16"/>
       <c r="AQ12" s="16"/>
-    </row>
-    <row r="13" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+    </row>
+    <row r="13" spans="1:46" s="11" customFormat="1">
       <c r="A13" s="16">
         <v>12</v>
       </c>
@@ -11788,33 +11867,33 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W13" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="16"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z13" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z13" s="16"/>
-      <c r="AA13" s="16"/>
-      <c r="AB13" s="16"/>
-      <c r="AC13" s="19">
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD13" s="16" t="s">
+      <c r="AG13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE13" s="16" t="s">
+      <c r="AH13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="16"/>
       <c r="AK13" s="16"/>
@@ -11824,8 +11903,11 @@
       <c r="AO13" s="16"/>
       <c r="AP13" s="16"/>
       <c r="AQ13" s="16"/>
-    </row>
-    <row r="14" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR13" s="16"/>
+      <c r="AS13" s="16"/>
+      <c r="AT13" s="16"/>
+    </row>
+    <row r="14" spans="1:46" s="11" customFormat="1">
       <c r="A14" s="16">
         <v>13</v>
       </c>
@@ -11865,33 +11947,33 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
       <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W14" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="16"/>
       <c r="X14" s="16"/>
       <c r="Y14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z14" s="16"/>
-      <c r="AA14" s="16"/>
-      <c r="AB14" s="16"/>
-      <c r="AC14" s="19">
+      <c r="AC14" s="16"/>
+      <c r="AD14" s="16"/>
+      <c r="AE14" s="16"/>
+      <c r="AF14" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD14" s="16" t="s">
+      <c r="AG14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE14" s="16" t="s">
+      <c r="AH14" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
       <c r="AI14" s="16"/>
       <c r="AJ14" s="16"/>
       <c r="AK14" s="16"/>
@@ -11901,8 +11983,11 @@
       <c r="AO14" s="16"/>
       <c r="AP14" s="16"/>
       <c r="AQ14" s="16"/>
-    </row>
-    <row r="15" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR14" s="16"/>
+      <c r="AS14" s="16"/>
+      <c r="AT14" s="16"/>
+    </row>
+    <row r="15" spans="1:46" s="11" customFormat="1">
       <c r="A15" s="16">
         <v>14</v>
       </c>
@@ -11940,33 +12025,33 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="16"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z15" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z15" s="16"/>
-      <c r="AA15" s="16"/>
-      <c r="AB15" s="16"/>
-      <c r="AC15" s="19">
+      <c r="AC15" s="16"/>
+      <c r="AD15" s="16"/>
+      <c r="AE15" s="16"/>
+      <c r="AF15" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD15" s="16" t="s">
+      <c r="AG15" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE15" s="16" t="s">
+      <c r="AH15" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
       <c r="AI15" s="16"/>
       <c r="AJ15" s="16"/>
       <c r="AK15" s="16"/>
@@ -11976,8 +12061,11 @@
       <c r="AO15" s="16"/>
       <c r="AP15" s="16"/>
       <c r="AQ15" s="16"/>
-    </row>
-    <row r="16" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR15" s="16"/>
+      <c r="AS15" s="16"/>
+      <c r="AT15" s="16"/>
+    </row>
+    <row r="16" spans="1:46" s="11" customFormat="1">
       <c r="A16" s="16">
         <v>15</v>
       </c>
@@ -12017,33 +12105,33 @@
       <c r="S16" s="16">
         <v>6</v>
       </c>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="W16" s="17">
-        <v>43922</v>
-      </c>
+      <c r="T16" s="23"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="16"/>
       <c r="X16" s="16"/>
       <c r="Y16" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z16" s="17">
+        <v>43922</v>
+      </c>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="16" t="s">
         <v>3297</v>
       </c>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="16"/>
-      <c r="AB16" s="16"/>
-      <c r="AC16" s="19">
+      <c r="AC16" s="16"/>
+      <c r="AD16" s="16"/>
+      <c r="AE16" s="16"/>
+      <c r="AF16" s="19">
         <v>43922.423611053244</v>
       </c>
-      <c r="AD16" s="16" t="s">
+      <c r="AG16" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AE16" s="16" t="s">
+      <c r="AH16" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
       <c r="AI16" s="16"/>
       <c r="AJ16" s="16"/>
       <c r="AK16" s="16"/>
@@ -12053,8 +12141,11 @@
       <c r="AO16" s="16"/>
       <c r="AP16" s="16"/>
       <c r="AQ16" s="16"/>
-    </row>
-    <row r="17" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR16" s="16"/>
+      <c r="AS16" s="16"/>
+      <c r="AT16" s="16"/>
+    </row>
+    <row r="17" spans="1:46" s="11" customFormat="1">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="16"/>
@@ -12074,12 +12165,12 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
       <c r="S17" s="16"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="16"/>
-      <c r="V17" s="20"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="23"/>
       <c r="W17" s="16"/>
       <c r="X17" s="16"/>
-      <c r="Y17" s="16"/>
+      <c r="Y17" s="20"/>
       <c r="Z17" s="16"/>
       <c r="AA17" s="16"/>
       <c r="AB17" s="16"/>
@@ -12098,8 +12189,11 @@
       <c r="AO17" s="16"/>
       <c r="AP17" s="16"/>
       <c r="AQ17" s="16"/>
-    </row>
-    <row r="18" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR17" s="16"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="16"/>
+    </row>
+    <row r="18" spans="1:46" s="11" customFormat="1">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="16"/>
@@ -12119,9 +12213,9 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
-      <c r="T18" s="16"/>
-      <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="23"/>
       <c r="W18" s="16"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
@@ -12143,8 +12237,11 @@
       <c r="AO18" s="16"/>
       <c r="AP18" s="16"/>
       <c r="AQ18" s="16"/>
-    </row>
-    <row r="19" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
+      <c r="AT18" s="16"/>
+    </row>
+    <row r="19" spans="1:46" s="11" customFormat="1">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="16"/>
@@ -12164,9 +12261,9 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
-      <c r="T19" s="16"/>
-      <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="16"/>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
@@ -12188,8 +12285,11 @@
       <c r="AO19" s="16"/>
       <c r="AP19" s="16"/>
       <c r="AQ19" s="16"/>
-    </row>
-    <row r="20" spans="1:43" s="11" customFormat="1" ht="16.2">
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
+      <c r="AT19" s="16"/>
+    </row>
+    <row r="20" spans="1:46" s="11" customFormat="1">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -12209,9 +12309,9 @@
       <c r="Q20" s="14"/>
       <c r="R20" s="14"/>
       <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
+      <c r="T20" s="23"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
       <c r="W20" s="14"/>
       <c r="X20" s="14"/>
       <c r="Y20" s="14"/>
@@ -12233,6 +12333,9 @@
       <c r="AO20" s="14"/>
       <c r="AP20" s="14"/>
       <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12240,16 +12343,16 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B2:B1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD1048576 AH2:AH1048576 AN2:AN1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG1048576 AK2:AK1048576 AQ2:AQ1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:U1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:X1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP1048576 AJ2:AJ1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AS2:AS1048576 AM2:AM1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H13 H15:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
@@ -12285,10 +12388,10 @@
       <selection pane="bottomLeft" activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.4609375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
